--- a/yu.xlsx
+++ b/yu.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56782E94-795D-CF45-A2D7-B00E4ECE677B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D4D58-8687-9A43-BC28-FB97211D06A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36940" windowHeight="21140" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="50080" windowHeight="28340" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="交易记录" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>总数</t>
   </si>
@@ -57,6 +59,30 @@
   </si>
   <si>
     <t>证券</t>
+  </si>
+  <si>
+    <t>股票</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>佣金</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>浙江鼎力</t>
+  </si>
+  <si>
+    <t>海天味业</t>
   </si>
 </sst>
 </file>
@@ -96,11 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +441,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0BF72D-7EE6-8B4E-9BCA-3FA586DAFFEE}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43521</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4">
+        <v>69.98</v>
+      </c>
+      <c r="D2">
+        <v>800</v>
+      </c>
+      <c r="E2">
+        <v>15.12</v>
+      </c>
+      <c r="F2">
+        <f>C2*D2+E2</f>
+        <v>55999.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>1500</v>
+      </c>
+      <c r="E3">
+        <v>29.97</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F28" si="0">C3*D3+E3</f>
+        <v>111029.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4">
+        <v>72.17</v>
+      </c>
+      <c r="D4">
+        <v>1200</v>
+      </c>
+      <c r="E4">
+        <v>23.37</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>86627.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4">
+        <v>78.7</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>21.26</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>78721.259999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>78.84</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6">
+        <v>6.38</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>23658.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43537</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4">
+        <v>72.72</v>
+      </c>
+      <c r="D7">
+        <v>-1000</v>
+      </c>
+      <c r="E7">
+        <v>92.36</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-72627.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43537</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>77.069999999999993</v>
+      </c>
+      <c r="D8">
+        <v>1500</v>
+      </c>
+      <c r="E8">
+        <v>31.21</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>115636.20999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="C11" s="4"/>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="C13" s="4"/>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="C14" s="4"/>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="C22" s="4"/>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="C23" s="4"/>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F576BF4A-84D9-4F42-AC28-2084AB25FD8F}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>

--- a/yu.xlsx
+++ b/yu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D4D58-8687-9A43-BC28-FB97211D06A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA5C163-1B7A-6B4E-BD10-69D4A4823AD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="50080" windowHeight="28340" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37280" windowHeight="21140" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
   </bookViews>
   <sheets>
     <sheet name="交易记录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>总数</t>
   </si>
@@ -83,6 +83,21 @@
   </si>
   <si>
     <t>海天味业</t>
+  </si>
+  <si>
+    <t>坤彩科技</t>
+  </si>
+  <si>
+    <t>安图生物</t>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+  </si>
+  <si>
+    <t>买入</t>
+  </si>
+  <si>
+    <t>卖出</t>
   </si>
 </sst>
 </file>
@@ -442,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0BF72D-7EE6-8B4E-9BCA-3FA586DAFFEE}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -469,8 +484,14 @@
       <c r="F1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43521</v>
       </c>
@@ -490,8 +511,27 @@
         <f>C2*D2+E2</f>
         <v>55999.12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1">
+        <v>43528</v>
+      </c>
+      <c r="L2" s="1">
+        <v>43537</v>
+      </c>
+      <c r="M2">
+        <v>78721.259999999995</v>
+      </c>
+      <c r="N2">
+        <v>72627.64</v>
+      </c>
+      <c r="O2">
+        <f>N2-M2</f>
+        <v>-6093.6199999999953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43525</v>
       </c>
@@ -511,8 +551,10 @@
         <f t="shared" ref="F3:F28" si="0">C3*D3+E3</f>
         <v>111029.97</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43528</v>
       </c>
@@ -532,8 +574,10 @@
         <f t="shared" si="0"/>
         <v>86627.37</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43528</v>
       </c>
@@ -553,8 +597,10 @@
         <f t="shared" si="0"/>
         <v>78721.259999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43528</v>
       </c>
@@ -574,8 +620,10 @@
         <f t="shared" si="0"/>
         <v>23658.38</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43537</v>
       </c>
@@ -595,8 +643,10 @@
         <f t="shared" si="0"/>
         <v>-72627.64</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43537</v>
       </c>
@@ -616,172 +666,256 @@
         <f t="shared" si="0"/>
         <v>115636.20999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="C9" s="4"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4">
+        <v>18.096</v>
+      </c>
+      <c r="D9">
+        <v>3000</v>
+      </c>
+      <c r="E9">
+        <v>14.66</v>
+      </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="C10" s="4"/>
+        <v>54302.66</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4">
+        <v>65.98</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>17.82</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="C11" s="4"/>
+        <v>65997.820000000007</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <v>62.468000000000004</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>16.86</v>
+      </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="C12" s="4"/>
+        <v>62484.86</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="D12">
+        <v>5000</v>
+      </c>
+      <c r="E12">
+        <v>25.49</v>
+      </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>94025.49</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="C13" s="4"/>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="C14" s="4"/>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="C15" s="4"/>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="C16" s="4"/>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="C17" s="4"/>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="C18" s="4"/>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="C19" s="4"/>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="C20" s="4"/>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="C21" s="4"/>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="C22" s="4"/>
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="C23" s="4"/>
       <c r="F23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="F24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="F25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="F26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="F27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="F28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
     </row>
   </sheetData>

--- a/yu.xlsx
+++ b/yu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA5C163-1B7A-6B4E-BD10-69D4A4823AD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6E976-5FBF-EF41-AF6D-295781C3C9D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="37280" windowHeight="21140" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>总数</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>卖出</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t>开始</t>
   </si>
 </sst>
 </file>
@@ -137,12 +143,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,13 +464,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0BF72D-7EE6-8B4E-9BCA-3FA586DAFFEE}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -484,6 +494,12 @@
       <c r="F1" t="s">
         <v>14</v>
       </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
       <c r="M1" t="s">
         <v>20</v>
       </c>
@@ -504,10 +520,10 @@
       <c r="D2">
         <v>800</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>15.12</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <f>C2*D2+E2</f>
         <v>55999.12</v>
       </c>
@@ -520,13 +536,13 @@
       <c r="L2" s="1">
         <v>43537</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <v>78721.259999999995</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>72627.64</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="5">
         <f>N2-M2</f>
         <v>-6093.6199999999953</v>
       </c>
@@ -544,15 +560,32 @@
       <c r="D3">
         <v>1500</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>29.97</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <f t="shared" ref="F3:F28" si="0">C3*D3+E3</f>
         <v>111029.97</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1">
+        <v>43521</v>
+      </c>
+      <c r="L3" s="1">
+        <v>43550</v>
+      </c>
+      <c r="M3" s="4">
+        <v>190687.47</v>
+      </c>
+      <c r="N3" s="4">
+        <v>217603.3</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O4" si="1">N3-M3</f>
+        <v>26915.829999999987</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -567,15 +600,21 @@
       <c r="D4">
         <v>1200</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>23.37</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>86627.37</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -590,15 +629,18 @@
       <c r="D5">
         <v>1000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>21.26</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>78721.259999999995</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -613,15 +655,18 @@
       <c r="D6">
         <v>300</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>6.38</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>23658.38</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -636,15 +681,18 @@
       <c r="D7">
         <v>-1000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>92.36</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>-72627.64</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -659,15 +707,18 @@
       <c r="D8">
         <v>1500</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>31.21</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>115636.20999999999</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -682,15 +733,18 @@
       <c r="D9">
         <v>3000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>14.66</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>54302.66</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -705,15 +759,18 @@
       <c r="D10">
         <v>1000</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>17.82</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>65997.820000000007</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -728,15 +785,18 @@
       <c r="D11">
         <v>1000</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>16.86</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>62484.86</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -751,172 +811,285 @@
       <c r="D12">
         <v>5000</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>25.49</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>94025.49</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="C13" s="4"/>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A13" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="D13">
+        <v>-2600</v>
+      </c>
+      <c r="E13" s="4">
+        <v>276.70999999999998</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>-217603.29</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="C14" s="4"/>
-      <c r="F14">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="C15" s="4"/>
-      <c r="F15">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="C16" s="4"/>
-      <c r="F16">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="C17" s="4"/>
-      <c r="F17">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="C18" s="4"/>
-      <c r="F18">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="C19" s="4"/>
-      <c r="F19">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="C20" s="4"/>
-      <c r="F20">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="C21" s="4"/>
-      <c r="F21">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="C22" s="4"/>
-      <c r="F22">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="C23" s="4"/>
-      <c r="F23">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
+      <c r="F32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/yu.xlsx
+++ b/yu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6E976-5FBF-EF41-AF6D-295781C3C9D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D01B02E-78C2-D44C-A62E-02AD105329AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37280" windowHeight="21140" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="50060" windowHeight="28340" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
   </bookViews>
   <sheets>
     <sheet name="交易记录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>总数</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>开始</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>白酒反弹，应当买入五粮液</t>
   </si>
 </sst>
 </file>
@@ -467,12 +473,13 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -494,6 +501,9 @@
       <c r="F1" t="s">
         <v>14</v>
       </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
       <c r="K1" t="s">
         <v>23</v>
       </c>
@@ -583,7 +593,7 @@
         <v>217603.3</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O4" si="1">N3-M3</f>
+        <f t="shared" ref="O3:O10" si="1">N3-M3</f>
         <v>26915.829999999987</v>
       </c>
     </row>
@@ -607,13 +617,24 @@
         <f t="shared" si="0"/>
         <v>86627.37</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1">
+        <v>43542</v>
+      </c>
+      <c r="L4" s="1">
+        <v>43556</v>
+      </c>
+      <c r="M4" s="4">
+        <v>148328.15</v>
+      </c>
+      <c r="N4" s="4">
+        <v>144376.42000000001</v>
+      </c>
       <c r="O4" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3951.7299999999814</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -636,11 +657,25 @@
         <f t="shared" si="0"/>
         <v>78721.259999999995</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1">
+        <v>43528</v>
+      </c>
+      <c r="L5" s="1">
+        <v>43559</v>
+      </c>
+      <c r="M5" s="4">
+        <v>202263.58</v>
+      </c>
+      <c r="N5" s="4">
+        <v>218422.25</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="1"/>
+        <v>16158.670000000013</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -662,11 +697,25 @@
         <f t="shared" si="0"/>
         <v>23658.38</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="5"/>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1">
+        <v>43542</v>
+      </c>
+      <c r="L6" s="1">
+        <v>43570</v>
+      </c>
+      <c r="M6" s="4">
+        <v>204005.12</v>
+      </c>
+      <c r="N6" s="4">
+        <v>190917.24</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="1"/>
+        <v>-13087.880000000005</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -688,11 +737,21 @@
         <f t="shared" si="0"/>
         <v>-72627.64</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1">
+        <v>43544</v>
+      </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4">
+        <v>329214.86</v>
+      </c>
       <c r="N7" s="4"/>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>-329214.86</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -718,7 +777,10 @@
       <c r="L8" s="1"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="5"/>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -744,7 +806,10 @@
       <c r="L9" s="1"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="5"/>
+      <c r="O9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -770,7 +835,10 @@
       <c r="L10" s="1"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -851,12 +919,27 @@
       <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="C14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="1">
+        <v>43553</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4">
+        <v>66.69</v>
+      </c>
+      <c r="D14">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="4">
+        <v>70</v>
+      </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>266830</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -865,12 +948,24 @@
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4">
+        <v>18.07</v>
+      </c>
+      <c r="D15">
+        <v>-8000</v>
+      </c>
+      <c r="E15" s="4">
+        <v>183.58</v>
+      </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-144376.42000000001</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -879,12 +974,24 @@
       <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>81</v>
+      </c>
+      <c r="D16">
+        <v>-2700</v>
+      </c>
+      <c r="E16" s="4">
+        <v>277.75</v>
+      </c>
       <c r="F16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-218422.25</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -893,12 +1000,24 @@
       <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="D17">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="4">
+        <v>37.299999999999997</v>
+      </c>
       <c r="F17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>138117.29999999999</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -907,12 +1026,24 @@
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4">
+        <v>63.72</v>
+      </c>
+      <c r="D18">
+        <v>-3000</v>
+      </c>
+      <c r="E18" s="4">
+        <v>242.76</v>
+      </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-190917.24</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>

--- a/yu.xlsx
+++ b/yu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuzifeng/GitHub/stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D01B02E-78C2-D44C-A62E-02AD105329AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE99BAC-2295-6041-B311-80CDDA5A3326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="50060" windowHeight="28340" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37140" windowHeight="21100" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
   </bookViews>
   <sheets>
     <sheet name="交易记录" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>总数</t>
   </si>
@@ -110,6 +113,12 @@
   </si>
   <si>
     <t>白酒反弹，应当买入五粮液</t>
+  </si>
+  <si>
+    <t>-----------</t>
+  </si>
+  <si>
+    <t>和而泰</t>
   </si>
 </sst>
 </file>
@@ -149,13 +158,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +483,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,14 +753,18 @@
       <c r="K7" s="1">
         <v>43544</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="M7" s="4">
         <v>329214.86</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4">
+        <v>329214.86</v>
+      </c>
       <c r="O7" s="5">
         <f t="shared" si="1"/>
-        <v>-329214.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -773,7 +787,12 @@
         <f t="shared" si="0"/>
         <v>115636.20999999999</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1">
+        <v>44355</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1108,12 +1127,23 @@
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="C23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1122,25 +1152,40 @@
       <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="C24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A24" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4">
+        <f>E24/D24</f>
+        <v>23.17596</v>
+      </c>
+      <c r="D24">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="4">
+        <v>69527.88</v>
+      </c>
+      <c r="F24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
       <c r="C25" s="4"/>
+      <c r="D25">
+        <v>2000</v>
+      </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="5"/>
@@ -1149,30 +1194,21 @@
       <c r="A26" s="1"/>
       <c r="C26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="F27" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="F28" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="5"/>
